--- a/3_XLOOKUP.xlsx
+++ b/3_XLOOKUP.xlsx
@@ -1,15 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Job\Skills\Excel\Excel-Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F9A10A-5AA5-4A1A-A0F6-1BC532FAA5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3480" yWindow="1665" windowWidth="29850" windowHeight="19155" activeTab="6" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
+    <sheet name="XLookUp Multiple Rows" sheetId="6" r:id="rId2"/>
+    <sheet name="XLookUp Exact Match" sheetId="8" r:id="rId3"/>
+    <sheet name="XLookUp Search Order" sheetId="9" r:id="rId4"/>
+    <sheet name="XLookUp Horizontal" sheetId="4" r:id="rId5"/>
+    <sheet name="XLookUp w SUM" sheetId="7" r:id="rId6"/>
+    <sheet name="VLookUp" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,10 +30,320 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="99">
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Halpert</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>11/2/2001</t>
+  </si>
+  <si>
+    <t>9/6/2015</t>
+  </si>
+  <si>
+    <t>Jim.Halpert@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>Beasley</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>10/3/1999</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Pam.Beasley@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>Schrute</t>
+  </si>
+  <si>
+    <t>7/4/2000</t>
+  </si>
+  <si>
+    <t>9/8/2017</t>
+  </si>
+  <si>
+    <t>Dwight.Schrute@AOL.com</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>1/5/2000</t>
+  </si>
+  <si>
+    <t>12/3/2015</t>
+  </si>
+  <si>
+    <t>Angela.Martin@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Flenderson</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>5/6/2001</t>
+  </si>
+  <si>
+    <t>8/30/2017</t>
+  </si>
+  <si>
+    <t>Toby.Flenderson@DunderMifflinCorporate.com</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>9/11/2013</t>
+  </si>
+  <si>
+    <t>Michael.Scott@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Supplier Relations</t>
+  </si>
+  <si>
+    <t>11/8/2003</t>
+  </si>
+  <si>
+    <t>Meredith.Palmer@Yahoo.com</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>6/9/2002</t>
+  </si>
+  <si>
+    <t>4/22/2015</t>
+  </si>
+  <si>
+    <t>Stanley.Hudson@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Malone</t>
+  </si>
+  <si>
+    <t>8/10/2003</t>
+  </si>
+  <si>
+    <t>Kevin.Malone@DunderMifflin.com</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Jim Halpert</t>
+  </si>
+  <si>
+    <t>Pam Beasley</t>
+  </si>
+  <si>
+    <t>Dwight Schrute</t>
+  </si>
+  <si>
+    <t>Angela Martin</t>
+  </si>
+  <si>
+    <t>Toby Flenderson</t>
+  </si>
+  <si>
+    <t>Michael Scott</t>
+  </si>
+  <si>
+    <t>Meredith Palmer</t>
+  </si>
+  <si>
+    <t>Stanley Hudson</t>
+  </si>
+  <si>
+    <t>Kevin Malone</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February </t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Manila Folder</t>
+  </si>
+  <si>
+    <t>Toby Flender</t>
+  </si>
+  <si>
+    <t>Kevin Malo</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>In order to use the wildcard, we will add "*"&amp; or &amp;"*" at the beginning or end of the cell we would like to use wild card on</t>
+  </si>
+  <si>
+    <t>The 2 at the end signifies that we would like to use wildcard matching.</t>
+  </si>
+  <si>
+    <t>XLOOKUPs are unfortunately only available on Office 365 versions of Excel, I have included the formulatexts for each one</t>
+  </si>
+  <si>
+    <t>match_mode 1 returns exact match or next largest</t>
+  </si>
+  <si>
+    <t>search_mode 1 finds Toby first, but -1 finds Michael first, it searches first to last and last to first</t>
+  </si>
+  <si>
+    <t>This looks for "Febuary" in the first row, once found, it will return the matching item in the row below.</t>
+  </si>
+  <si>
+    <t>Febuary-March</t>
+  </si>
+  <si>
+    <t>Issue with VLOOKUP is that if a new column were to be added, the col_index_num would have to be changed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,13 +371,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +446,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D26DF389-4B4F-4E51-9740-A2291AFB93BC}" name="Table1" displayName="Table1" ref="E1:P10" totalsRowShown="0">
+  <autoFilter ref="E1:P10" xr:uid="{D26DF389-4B4F-4E51-9740-A2291AFB93BC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F46B4829-1B9C-48C4-A51C-E10EF7E0D6DF}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{BF3996CD-34CC-4CAB-8809-33852A8B5C8E}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{B6C1BC6A-6FF1-430F-8A76-4DD14AF326E7}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{B3FC8872-8C21-4B4D-8D91-EE905C03460D}" name="Full Name"/>
+    <tableColumn id="5" xr3:uid="{B1664997-4D91-4361-8145-C59C26CE63B4}" name="Age"/>
+    <tableColumn id="6" xr3:uid="{BE1A0FD5-B27D-4E3D-B14F-3225A9EA7B15}" name="Address"/>
+    <tableColumn id="7" xr3:uid="{F3322128-74E1-4730-9619-BD3732FD84C1}" name="Gender"/>
+    <tableColumn id="8" xr3:uid="{45874BF3-863B-4872-853B-1A5FB99BBB59}" name="JobTitle"/>
+    <tableColumn id="9" xr3:uid="{4FFF20C3-5605-4FAA-9749-D925A7936512}" name="Salary"/>
+    <tableColumn id="10" xr3:uid="{A683BDFE-DF3F-463E-B202-DB217164095C}" name="StartDate" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{8D3A33B9-7866-4BD9-AC7E-3953A1B3ED95}" name="EndDate" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{CC77E55A-A143-491A-B098-941540C46630}" name="Email" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA85004D-761F-4E31-9B4A-A36FD7B700AD}" name="Table2" displayName="Table2" ref="A2:B6" totalsRowShown="0">
+  <autoFilter ref="A2:B6" xr:uid="{FA85004D-761F-4E31-9B4A-A36FD7B700AD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7E829D52-2891-4F5B-89F6-9EC729E68BD3}" name="Full Name"/>
+    <tableColumn id="2" xr3:uid="{E311DD6B-4D94-4B03-A37D-70AEE0A85786}" name="Email" dataDxfId="9">
+      <calculatedColumnFormula>XLOOKUP(Table2[[#This Row],[Full Name]],Table1[Full Name],Table1[Email])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B98DAE1E-8482-4958-AC61-A515F0D1A9AB}" name="Table3" displayName="Table3" ref="F1:P10" totalsRowShown="0">
+  <autoFilter ref="F1:P10" xr:uid="{B98DAE1E-8482-4958-AC61-A515F0D1A9AB}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CFD9D683-845F-466B-A28B-AF91CD0E3321}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{5248E550-A68E-477D-8962-C9F8DE777112}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{20BA2B30-4FDA-4E0F-8CE4-E9CD6417B70D}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{CEF720FA-5AC0-43A9-9163-9568DBE1F52C}" name="Full Name"/>
+    <tableColumn id="5" xr3:uid="{AA66BBDC-F2AD-4B22-9C93-F2D142D2893F}" name="Age"/>
+    <tableColumn id="6" xr3:uid="{3DDEB377-968B-4B33-A619-820975CFED25}" name="Gender"/>
+    <tableColumn id="7" xr3:uid="{D9A7CB21-2955-449F-B27D-65438FF81AA4}" name="JobTitle"/>
+    <tableColumn id="8" xr3:uid="{A39DDDC6-A275-45AD-A0C0-516E2AFC027E}" name="Salary"/>
+    <tableColumn id="9" xr3:uid="{D3561928-505D-4B70-81DF-26222FD94A27}" name="StartDate" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{3CCE671A-E803-4195-B028-715F79D430EB}" name="EndDate" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{96E1737A-4E68-4E24-84A0-D935D3AF93D9}" name="Email" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2832B1BE-A58A-4FAC-B97F-8F22869E0549}" name="Table5" displayName="Table5" ref="A2:C6" totalsRowShown="0">
+  <autoFilter ref="A2:C6" xr:uid="{2832B1BE-A58A-4FAC-B97F-8F22869E0549}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EA18F652-E5FC-436C-8FC7-3DC945C8D826}" name="Full Name"/>
+    <tableColumn id="2" xr3:uid="{15164B68-9141-47C3-B757-B6EC2E8225D8}" name="EndDate" dataDxfId="10">
+      <calculatedColumnFormula>XLOOKUP(Table5[[#This Row],[Full Name]],Table3[Full Name],Table3[[EndDate]:[Email]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{45B6F1E0-03A5-4785-A1EA-7D84E922CD0C}" name="Email"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AFE0F539-7364-41F3-AEF6-B186F2BF28C7}" name="Table6" displayName="Table6" ref="E1:O10" totalsRowShown="0">
+  <autoFilter ref="E1:O10" xr:uid="{AFE0F539-7364-41F3-AEF6-B186F2BF28C7}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{005538E1-BF68-44DC-A5E7-41536FD770A7}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{0A0F21B1-797A-4F33-A405-FD3DE0AA1927}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{2DCE84FA-4302-42D3-81D5-6E5444BE92F0}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{FCC43D37-FC9F-49E0-92CE-B09B94D921F8}" name="Full Name"/>
+    <tableColumn id="5" xr3:uid="{ED6C4EDB-0CF4-4E6A-BCF5-F5A5ABEF8A59}" name="Age"/>
+    <tableColumn id="6" xr3:uid="{1EDF62F8-3F2A-4584-9D26-C1404B152CA8}" name="Gender"/>
+    <tableColumn id="7" xr3:uid="{915CC180-B6AD-47A3-A14B-E73950B8E68D}" name="JobTitle"/>
+    <tableColumn id="8" xr3:uid="{CEDE735F-B44A-4630-937D-314B6BFF5D6C}" name="Salary"/>
+    <tableColumn id="9" xr3:uid="{CC2991ED-0F8F-4EA6-9BB7-EEB4CECF648E}" name="StartDate" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E16025EA-0299-452E-A8BA-6662B6A76788}" name="EndDate" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{5AF411BA-2DA9-46EC-98BE-4CA73CE1D632}" name="Email" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B9B8E965-2BEA-4F00-A8FD-D3E76D821677}" name="Table8" displayName="Table8" ref="F1:P10" totalsRowShown="0">
+  <autoFilter ref="F1:P10" xr:uid="{B9B8E965-2BEA-4F00-A8FD-D3E76D821677}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{1570A9B6-A312-4D4B-81F3-B745A4254322}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{EA9CD649-73D0-407C-8C18-CA00EE116E60}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{DD7CF233-7E5C-44C7-A350-EAB6E9864FD4}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{D3F77AB3-7549-42FF-9F1D-F8A67C8E3742}" name="Full Name"/>
+    <tableColumn id="5" xr3:uid="{876FCF36-B9B9-42B5-873E-AAE4C750B0EC}" name="Age"/>
+    <tableColumn id="6" xr3:uid="{CBE92C81-6653-4685-A1C4-BA9B2F1020EA}" name="Gender"/>
+    <tableColumn id="7" xr3:uid="{A053775C-C03B-4CBF-B9A2-4011AB53ECDB}" name="JobTitle"/>
+    <tableColumn id="8" xr3:uid="{AA66B95A-261C-4D4D-8E4D-84A70B518FC5}" name="Salary"/>
+    <tableColumn id="9" xr3:uid="{2CC02D4E-07D5-41D4-A383-D1FFE5C60B14}" name="StartDate" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E12C6166-D6B2-474D-B224-1A2158AF5F62}" name="EndDate" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{D3B01044-F598-4C70-B47E-11335F514D59}" name="Email" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2156984E-5154-4546-AE49-B97C7F2CEDA8}" name="Table10" displayName="Table10" ref="E1:P10" totalsRowShown="0">
+  <autoFilter ref="E1:P10" xr:uid="{2156984E-5154-4546-AE49-B97C7F2CEDA8}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{67D89781-74A0-4FA4-B272-92171C2E8431}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{9FBBD041-09B6-4B24-A6FB-79054E3E2652}" name="FirstName"/>
+    <tableColumn id="3" xr3:uid="{0C8F5D5D-352F-43D3-9097-2D0E8D01EC7A}" name="LastName"/>
+    <tableColumn id="4" xr3:uid="{742E5EC6-9FCC-41E8-8F18-616B10D65652}" name="Full Name"/>
+    <tableColumn id="5" xr3:uid="{279A7689-D99E-4779-841A-349A542DC845}" name="Age"/>
+    <tableColumn id="6" xr3:uid="{6D3EFF9E-2118-418E-B653-B53A55208C38}" name="Gender"/>
+    <tableColumn id="7" xr3:uid="{A4A9E9AA-7881-4E01-BBE0-B6BB037AFB2B}" name="Address"/>
+    <tableColumn id="8" xr3:uid="{16AD93AC-7E00-46D5-B622-6AA00336B7AB}" name="JobTitle"/>
+    <tableColumn id="9" xr3:uid="{113642D9-67C2-41B8-855D-0854E308B1B2}" name="Salary"/>
+    <tableColumn id="10" xr3:uid="{C1695B86-EC6A-4E03-848C-47A829E2DE0C}" name="StartDate" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{D5F2373A-77AD-4F14-A91A-8A8A267CBE6C}" name="EndDate" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{7D83BA54-97F0-46C7-8BC0-E20F026C92C6}" name="Email" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +594,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +606,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +653,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +705,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +873,2644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027015F-D30F-450C-928C-DE78480974B7}">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>45000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="e">
+        <f ca="1">XLOOKUP(Table2[[#This Row],[Full Name]],Table1[Full Name],Table1[Email])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3">
+        <v>1002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>36000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="e">
+        <f ca="1">XLOOKUP(Table2[[#This Row],[Full Name]],Table1[Full Name],Table1[Email])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>63000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="e">
+        <f ca="1">XLOOKUP(Table2[[#This Row],[Full Name]],Table1[Full Name],Table1[Email])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5">
+        <v>1004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>47000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="e">
+        <f ca="1">XLOOKUP(Table2[[#This Row],[Full Name]],Table1[Full Name],Table1[Email])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6">
+        <v>1005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+        <v>=XLOOKUP([@[Full Name]],Table1[Full Name],Table1[Email])</v>
+      </c>
+      <c r="E7">
+        <v>1006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>65000</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>41000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>48000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>42000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF05A7-3704-402E-8684-C856D6F82881}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>45000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="e">
+        <f ca="1">XLOOKUP(Table5[[#This Row],[Full Name]],Table3[Full Name],Table3[[EndDate]:[Email]])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3">
+        <v>1002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>36000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="e">
+        <f ca="1">XLOOKUP(Table5[[#This Row],[Full Name]],Table3[Full Name],Table3[[EndDate]:[Email]])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4">
+        <v>1003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>63000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="e">
+        <f ca="1">XLOOKUP(Table5[[#This Row],[Full Name]],Table3[Full Name],Table3[[EndDate]:[Email]])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5">
+        <v>1004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>47000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="e">
+        <f ca="1">XLOOKUP(Table5[[#This Row],[Full Name]],Table3[Full Name],Table3[[EndDate]:[Email]])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6">
+        <v>1005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+        <v>=XLOOKUP([@[Full Name]],Table3[Full Name],Table3[[EndDate]:[Email]])</v>
+      </c>
+      <c r="F7">
+        <v>1006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>65000</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1007</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>41000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1008</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>48000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1009</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>42000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:I23" si="0">CONCATENATE(G12," ",H12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7D64C-38C9-4586-AD37-471BFBE38708}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>45000</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="e">
+        <f ca="1">XLOOKUP($A3,Table6[Full Name],Table6[Email],"Not Found",2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B3)</f>
+        <v>=XLOOKUP($A3,Table6[Full Name],Table6[Email],"Not Found",2)</v>
+      </c>
+      <c r="E3">
+        <v>1002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>36000</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="e">
+        <f ca="1">XLOOKUP("*"&amp;$A4,Table6[Full Name],Table6[Email],"Not Found",2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" ref="C4:C6" ca="1" si="0">_xlfn.FORMULATEXT(B4)</f>
+        <v>=XLOOKUP("*"&amp;$A4,Table6[Full Name],Table6[Email],"Not Found",2)</v>
+      </c>
+      <c r="E4">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>63000</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="e">
+        <f ca="1">XLOOKUP($A5&amp;"*",Table6[Full Name],Table6[Email],"Not Found",2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=XLOOKUP($A5&amp;"*",Table6[Full Name],Table6[Email],"Not Found",2)</v>
+      </c>
+      <c r="E5">
+        <v>1004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>47000</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="e">
+        <f ca="1">XLOOKUP($A6&amp;"*",Table6[Full Name],Table6[Email],"Not Found",2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=XLOOKUP($A6&amp;"*",Table6[Full Name],Table6[Email],"Not Found",2)</v>
+      </c>
+      <c r="E6">
+        <v>1005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>50000</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <v>65000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>41000</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>48000</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>42000</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" ref="H22:H23" si="1">CONCATENATE(F12," ",G12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A42832-12A0-41C9-BED0-20D277223524}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>45000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="e">
+        <f ca="1">XLOOKUP(A3,Table8[StartDate],Table8[Full Name],,1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B3)</f>
+        <v>=XLOOKUP(A3,Table8[StartDate],Table8[Full Name],,1)</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3">
+        <v>1002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>36000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="e">
+        <f ca="1">XLOOKUP(A4,Table8[StartDate],Table8[Full Name],,,-1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B4)</f>
+        <v>=XLOOKUP(A4,Table8[StartDate],Table8[Full Name],,,-1)</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4">
+        <v>1003</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>63000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>47000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>65000</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1007</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>41000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1008</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>48000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1009</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>42000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" ref="I22:I23" si="0">CONCATENATE(G12," ",H12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="e">
+        <f ca="1">XLOOKUP($B$1,$H$1:$S$1,H2:S2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=XLOOKUP($B$1,$H$1:$S$1,H2:S2)</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>450</v>
+      </c>
+      <c r="I2">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>750</v>
+      </c>
+      <c r="L2">
+        <v>440</v>
+      </c>
+      <c r="M2">
+        <v>485</v>
+      </c>
+      <c r="N2">
+        <v>510</v>
+      </c>
+      <c r="O2">
+        <v>347</v>
+      </c>
+      <c r="P2">
+        <v>736</v>
+      </c>
+      <c r="Q2">
+        <v>155</v>
+      </c>
+      <c r="R2">
+        <v>450</v>
+      </c>
+      <c r="S2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="e">
+        <f ca="1">XLOOKUP($B$1,$H$1:$S$1,H3:S3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C4" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
+        <v>=XLOOKUP($B$1,$H$1:$S$1,H3:S3)</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>71</v>
+      </c>
+      <c r="N3">
+        <v>57</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>41</v>
+      </c>
+      <c r="R3">
+        <v>58</v>
+      </c>
+      <c r="S3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="e">
+        <f ca="1">XLOOKUP($B$1,$H$1:$S$1,H4:S4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=XLOOKUP($B$1,$H$1:$S$1,H4:S4)</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>118</v>
+      </c>
+      <c r="J4">
+        <v>145</v>
+      </c>
+      <c r="K4">
+        <v>210</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>170</v>
+      </c>
+      <c r="N4">
+        <v>130</v>
+      </c>
+      <c r="O4">
+        <v>90</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
+      </c>
+      <c r="Q4">
+        <v>110</v>
+      </c>
+      <c r="R4">
+        <v>130</v>
+      </c>
+      <c r="S4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="e">
+        <f ca="1">XLOOKUP($B$1,$H$1:$S$1,H2:S2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>450</v>
+      </c>
+      <c r="I2">
+        <v>310</v>
+      </c>
+      <c r="J2">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>750</v>
+      </c>
+      <c r="L2">
+        <v>440</v>
+      </c>
+      <c r="M2">
+        <v>485</v>
+      </c>
+      <c r="N2">
+        <v>510</v>
+      </c>
+      <c r="O2">
+        <v>347</v>
+      </c>
+      <c r="P2">
+        <v>736</v>
+      </c>
+      <c r="Q2">
+        <v>155</v>
+      </c>
+      <c r="R2">
+        <v>450</v>
+      </c>
+      <c r="S2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="e">
+        <f ca="1">XLOOKUP($B$1,$H$1:$S$1,H3:S3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>71</v>
+      </c>
+      <c r="N3">
+        <v>57</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>41</v>
+      </c>
+      <c r="R3">
+        <v>58</v>
+      </c>
+      <c r="S3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="e">
+        <f ca="1">XLOOKUP($B$1,$H$1:$S$1,H4:S4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>118</v>
+      </c>
+      <c r="J4">
+        <v>145</v>
+      </c>
+      <c r="K4">
+        <v>210</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>170</v>
+      </c>
+      <c r="N4">
+        <v>130</v>
+      </c>
+      <c r="O4">
+        <v>90</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
+      </c>
+      <c r="Q4">
+        <v>110</v>
+      </c>
+      <c r="R4">
+        <v>130</v>
+      </c>
+      <c r="S4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="e">
+        <f ca="1">SUM(XLOOKUP(I1,H1:S1,H2:S2):XLOOKUP(J1,H1:S1,H2:S2))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
+        <v>=SUM(XLOOKUP(I1,H1:S1,H2:S2):XLOOKUP(J1,H1:S1,H2:S2))</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F9C169-12D8-441E-870D-6C6EF0F6521C}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>45000</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Table10[[Full Name]:[Email]],9,FALSE)</f>
+        <v>Dwight.Schrute@AOL.com</v>
+      </c>
+      <c r="C3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B3)</f>
+        <v>=VLOOKUP(A3,Table10[[Full Name]:[Email]],9,FALSE)</v>
+      </c>
+      <c r="E3">
+        <v>1002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>36000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Table10[[Full Name]:[Email]],9,FALSE)</f>
+        <v>Michael.Scott@DunderMifflin.com</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C5" ca="1" si="0">_xlfn.FORMULATEXT(B4)</f>
+        <v>=VLOOKUP(A4,Table10[[Full Name]:[Email]],9,FALSE)</v>
+      </c>
+      <c r="E4">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>63000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Table10[[Full Name]:[Email]],9,FALSE)</f>
+        <v>Stanley.Hudson@gmail.com</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=VLOOKUP(A5,Table10[[Full Name]:[Email]],9,FALSE)</v>
+      </c>
+      <c r="E5">
+        <v>1004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>47000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>1006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>65000</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8">
+        <v>41000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>48000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>42000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>